--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H2">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I2">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J2">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>707.8978227081736</v>
+        <v>70.95697755313243</v>
       </c>
       <c r="R2">
-        <v>6371.080404373562</v>
+        <v>638.612797978192</v>
       </c>
       <c r="S2">
-        <v>0.05358952845084659</v>
+        <v>0.006327087134619072</v>
       </c>
       <c r="T2">
-        <v>0.05358952845084659</v>
+        <v>0.006327087134619072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H3">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I3">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J3">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>10575.01809575824</v>
+        <v>8976.555264492092</v>
       </c>
       <c r="R3">
-        <v>95175.16286182414</v>
+        <v>80788.99738042883</v>
       </c>
       <c r="S3">
-        <v>0.8005537168384206</v>
+        <v>0.8004208928521047</v>
       </c>
       <c r="T3">
-        <v>0.8005537168384205</v>
+        <v>0.8004208928521046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H4">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I4">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J4">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>1350.324692344127</v>
+        <v>1709.600621934039</v>
       </c>
       <c r="R4">
-        <v>12152.92223109714</v>
+        <v>15386.40559740635</v>
       </c>
       <c r="S4">
-        <v>0.1022227519240267</v>
+        <v>0.1524415564667482</v>
       </c>
       <c r="T4">
-        <v>0.1022227519240267</v>
+        <v>0.1524415564667481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.091629</v>
       </c>
       <c r="I5">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J5">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>0.5243173257900001</v>
+        <v>0.061914183626</v>
       </c>
       <c r="R5">
-        <v>4.718855932110001</v>
+        <v>0.557227652634</v>
       </c>
       <c r="S5">
-        <v>3.96920534946725E-05</v>
+        <v>5.520759877027964E-06</v>
       </c>
       <c r="T5">
-        <v>3.96920534946725E-05</v>
+        <v>5.520759877027963E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.091629</v>
       </c>
       <c r="I6">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J6">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>7.832578417795999</v>
@@ -818,10 +818,10 @@
         <v>70.493205760164</v>
       </c>
       <c r="S6">
-        <v>0.000592944589599342</v>
+        <v>0.000698414840189939</v>
       </c>
       <c r="T6">
-        <v>0.0005929445895993419</v>
+        <v>0.0006984148401899388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.091629</v>
       </c>
       <c r="I7">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J7">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>1.000142406046</v>
+        <v>1.491728234257</v>
       </c>
       <c r="R7">
-        <v>9.001281654413999</v>
+        <v>13.425554108313</v>
       </c>
       <c r="S7">
-        <v>7.57131300653758E-05</v>
+        <v>0.0001330143256489204</v>
       </c>
       <c r="T7">
-        <v>7.571313006537579E-05</v>
+        <v>0.0001330143256489204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H8">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I8">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J8">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>31.77337587823001</v>
+        <v>2.957079493589111</v>
       </c>
       <c r="R8">
-        <v>285.9603829040701</v>
+        <v>26.613715442302</v>
       </c>
       <c r="S8">
-        <v>0.002405319208486654</v>
+        <v>0.0002636766709225144</v>
       </c>
       <c r="T8">
-        <v>0.002405319208486654</v>
+        <v>0.0002636766709225144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H9">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I9">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J9">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>474.6504567427186</v>
+        <v>374.0912932180991</v>
       </c>
       <c r="R9">
-        <v>4271.854110684468</v>
+        <v>3366.821638962891</v>
       </c>
       <c r="S9">
-        <v>0.03593215481086061</v>
+        <v>0.03335694797204277</v>
       </c>
       <c r="T9">
-        <v>0.0359321548108606</v>
+        <v>0.03335694797204276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H10">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I10">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J10">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>60.60814517463533</v>
+        <v>71.24633990452656</v>
       </c>
       <c r="R10">
-        <v>545.473306571718</v>
+        <v>641.217059140739</v>
       </c>
       <c r="S10">
-        <v>0.004588178994199439</v>
+        <v>0.006352888977846935</v>
       </c>
       <c r="T10">
-        <v>0.004588178994199439</v>
+        <v>0.006352888977846933</v>
       </c>
     </row>
   </sheetData>
